--- a/matlab/statistics/rawdataAnovaSharpnessDiffThresholdWithout9Sub.xlsx
+++ b/matlab/statistics/rawdataAnovaSharpnessDiffThresholdWithout9Sub.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3570C5A8-76B1-427A-BCFF-C8A687D48251}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188AF66F-A693-4990-A522-2075A1460151}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="13">
   <si>
     <t>Observation</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D8E72B-909E-4713-9154-9D34E1C8C58B}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2:F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1.9715841683366733</v>
+        <v>1.9858056112224447</v>
       </c>
       <c r="G2" s="2">
         <v>1.9858056112224447</v>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>1.9553667334669336</v>
+        <v>1.9952865731462925</v>
       </c>
       <c r="G3" s="2">
         <v>1.9952865731462925</v>
@@ -526,7 +526,7 @@
         <v>1.9</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="0">G3-H3</f>
+        <f t="shared" ref="I3:I63" si="0">G3-H3</f>
         <v>9.528657314629263E-2</v>
       </c>
     </row>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>1.974578156312625</v>
+        <v>2.0249769539078155</v>
       </c>
       <c r="G4" s="2">
         <v>2.0249769539078155</v>
@@ -577,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>1.9740791583166333</v>
+        <v>2.003769539078156</v>
       </c>
       <c r="G5" s="2">
         <v>2.003769539078156</v>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>1.9453867735470942</v>
+        <v>1.9788196392785571</v>
       </c>
       <c r="G6" s="2">
         <v>1.9788196392785571</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>1.9730811623246494</v>
+        <v>1.9810651302605213</v>
       </c>
       <c r="G7" s="2">
         <v>1.9810651302605213</v>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>2.0566633266533065</v>
+        <v>2.1377505010020039</v>
       </c>
       <c r="G8" s="2">
         <v>2.1377505010020039</v>
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>1.9710851703406813</v>
+        <v>2.0214839679358718</v>
       </c>
       <c r="G9" s="2">
         <v>2.0214839679358718</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>1.9655961923847696</v>
+        <v>2.0007755511022038</v>
       </c>
       <c r="G11" s="2">
         <v>2.0007755511022038</v>
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>2.136503006012024</v>
+        <v>2.052</v>
       </c>
       <c r="G12" s="2">
         <v>2.052</v>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1.9618537074148297</v>
+        <v>2.0082605210420841</v>
       </c>
       <c r="G13" s="2">
         <v>2.0082605210420841</v>
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>2.0120030060120242</v>
+        <v>2.0930901803607211</v>
       </c>
       <c r="G14" s="2">
         <v>2.0930901803607211</v>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>1.9980310621242483</v>
+        <v>2.0601563126252507</v>
       </c>
       <c r="G15" s="2">
         <v>2.0601563126252507</v>
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>1.9932905811623245</v>
+        <v>2.0476813627254509</v>
       </c>
       <c r="G16" s="2">
         <v>2.0476813627254509</v>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>2.0326044947036932</v>
+        <v>2.0481803607214428</v>
       </c>
       <c r="G17" s="2">
         <v>2.0481803607214428</v>
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>1.9603567134268536</v>
+        <v>2.0115040080160318</v>
       </c>
       <c r="G18" s="2">
         <v>2.0115040080160318</v>
@@ -997,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>2.0244779559118236</v>
+        <v>2.1023216432865728</v>
       </c>
       <c r="G19" s="2">
         <v>2.1023216432865728</v>
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>1.9655961923847696</v>
+        <v>1.9783206412825656</v>
       </c>
       <c r="G20" s="2">
         <v>1.9783206412825656</v>
@@ -1042,43 +1042,43 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>2.052</v>
+        <v>1.9906452905811631</v>
       </c>
       <c r="G21" s="2">
-        <v>2.052</v>
+        <v>1.9906452905811631</v>
       </c>
       <c r="H21" s="1">
         <v>1.9</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>0.15200000000000014</v>
+        <v>9.0645290581163218E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
@@ -1087,28 +1087,28 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>1.9604138276553105</v>
+        <v>1.9935881763527055</v>
       </c>
       <c r="G22" s="2">
-        <v>1.9906452905811631</v>
+        <v>1.9935881763527055</v>
       </c>
       <c r="H22" s="1">
         <v>1.9</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
-        <v>9.0645290581163218E-2</v>
+        <v>9.3588176352705554E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
@@ -1117,28 +1117,28 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>1.947037074148297</v>
+        <v>1.9911803607214438</v>
       </c>
       <c r="G23" s="2">
-        <v>1.9935881763527055</v>
+        <v>1.9911803607214438</v>
       </c>
       <c r="H23" s="1">
         <v>1.9</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>9.3588176352705554E-2</v>
+        <v>9.1180360721443865E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -1147,28 +1147,28 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>1.956935871743487</v>
+        <v>2.0045571142284575</v>
       </c>
       <c r="G24" s="2">
-        <v>1.9911803607214438</v>
+        <v>2.0045571142284575</v>
       </c>
       <c r="H24" s="1">
         <v>1.9</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>9.1180360721443865E-2</v>
+        <v>0.10455711422845759</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
@@ -1177,28 +1177,28 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>1.9612164328657316</v>
+        <v>1.9831543086172354</v>
       </c>
       <c r="G25" s="2">
-        <v>2.0045571142284575</v>
+        <v>1.9831543086172354</v>
       </c>
       <c r="H25" s="1">
         <v>1.9</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>0.10455711422845759</v>
+        <v>8.3154308617235495E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
@@ -1207,28 +1207,28 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>1.9662995991983969</v>
+        <v>1.991715430861724</v>
       </c>
       <c r="G26" s="2">
-        <v>1.9831543086172354</v>
+        <v>1.991715430861724</v>
       </c>
       <c r="H26" s="1">
         <v>1.9</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>8.3154308617235495E-2</v>
+        <v>9.1715430861724068E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -1237,28 +1237,28 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>1.9671022044088176</v>
+        <v>1.9515851703406801</v>
       </c>
       <c r="G27" s="2">
-        <v>1.991715430861724</v>
+        <v>1.9515851703406801</v>
       </c>
       <c r="H27" s="1">
         <v>1.9</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>9.1715430861724068E-2</v>
+        <v>5.158517034068022E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -1267,28 +1267,28 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>1.9272394789579161</v>
+        <v>2.0446873747494987</v>
       </c>
       <c r="G28" s="2">
-        <v>1.9515851703406801</v>
+        <v>2.0446873747494987</v>
       </c>
       <c r="H28" s="1">
         <v>1.9</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>5.158517034068022E-2</v>
+        <v>0.14468737474949878</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -1297,28 +1297,28 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>1.986899799599199</v>
+        <v>2.083212424849699</v>
       </c>
       <c r="G29" s="2">
-        <v>2.0446873747494987</v>
+        <v>2.083212424849699</v>
       </c>
       <c r="H29" s="1">
         <v>1.9</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>0.14468737474949878</v>
+        <v>0.18321242484969913</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -1327,28 +1327,28 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2.0050921843687384</v>
+        <v>2.0026843687374751</v>
       </c>
       <c r="G30" s="2">
-        <v>2.083212424849699</v>
+        <v>2.0026843687374751</v>
       </c>
       <c r="H30" s="1">
         <v>1.9</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>0.18321242484969913</v>
+        <v>0.10268436873747522</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
@@ -1357,28 +1357,28 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>1.9566683366733468</v>
+        <v>2.003219438877756</v>
       </c>
       <c r="G31" s="2">
-        <v>2.0026843687374751</v>
+        <v>2.003219438877756</v>
       </c>
       <c r="H31" s="1">
         <v>1.9</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>0.10268436873747522</v>
+        <v>0.10321943887775609</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -1387,28 +1387,28 @@
         <v>50</v>
       </c>
       <c r="F32">
-        <v>1.9566683366733468</v>
+        <v>1.9802114228456906</v>
       </c>
       <c r="G32" s="2">
-        <v>2.003219438877756</v>
+        <v>1.9802114228456906</v>
       </c>
       <c r="H32" s="1">
         <v>1.9</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>0.10321943887775609</v>
+        <v>8.0211422845690716E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -1417,28 +1417,28 @@
         <v>50</v>
       </c>
       <c r="F33">
-        <v>1.9430240480961927</v>
+        <v>1.9834218436873752</v>
       </c>
       <c r="G33" s="2">
-        <v>1.9802114228456906</v>
+        <v>1.9834218436873752</v>
       </c>
       <c r="H33" s="1">
         <v>1.9</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>8.0211422845690716E-2</v>
+        <v>8.3421843687375263E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>7</v>
@@ -1447,28 +1447,28 @@
         <v>50</v>
       </c>
       <c r="F34">
-        <v>1.9692424849699399</v>
+        <v>1.993588176352705</v>
       </c>
       <c r="G34" s="2">
-        <v>1.9834218436873752</v>
+        <v>1.993588176352705</v>
       </c>
       <c r="H34" s="1">
         <v>1.9</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>8.3421843687375263E-2</v>
+        <v>9.358817635270511E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -1477,28 +1477,28 @@
         <v>50</v>
       </c>
       <c r="F35">
-        <v>1.9443617234468944</v>
+        <v>1.9842244488977951</v>
       </c>
       <c r="G35" s="2">
-        <v>1.993588176352705</v>
+        <v>1.9842244488977951</v>
       </c>
       <c r="H35" s="1">
         <v>1.9</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>9.358817635270511E-2</v>
+        <v>8.4224448897795234E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -1507,28 +1507,28 @@
         <v>50</v>
       </c>
       <c r="F36">
-        <v>1.9486422845691387</v>
+        <v>2.0053597194388781</v>
       </c>
       <c r="G36" s="2">
-        <v>1.9842244488977951</v>
+        <v>2.0053597194388781</v>
       </c>
       <c r="H36" s="1">
         <v>1.9</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>8.4224448897795234E-2</v>
+        <v>0.10535971943887823</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -1537,28 +1537,28 @@
         <v>50</v>
       </c>
       <c r="F37">
-        <v>1.9593436873747498</v>
+        <v>2.0141883767535065</v>
       </c>
       <c r="G37" s="2">
-        <v>2.0053597194388781</v>
+        <v>2.0141883767535065</v>
       </c>
       <c r="H37" s="1">
         <v>1.9</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>0.10535971943887823</v>
+        <v>0.11418837675350657</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -1567,28 +1567,28 @@
         <v>50</v>
       </c>
       <c r="F38">
-        <v>1.9775360721442887</v>
+        <v>2.110768537074148</v>
       </c>
       <c r="G38" s="2">
-        <v>2.0141883767535065</v>
+        <v>2.110768537074148</v>
       </c>
       <c r="H38" s="1">
         <v>1.9</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>0.11418837675350657</v>
+        <v>0.21076853707414811</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -1597,88 +1597,88 @@
         <v>50</v>
       </c>
       <c r="F39">
-        <v>2.0267625250500991</v>
+        <v>1.9654969939879767</v>
       </c>
       <c r="G39" s="2">
-        <v>2.110768537074148</v>
+        <v>1.9654969939879767</v>
       </c>
       <c r="H39" s="1">
         <v>1.9</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>0.21076853707414811</v>
+        <v>6.5496993987976815E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F40">
-        <v>1.9374058116232467</v>
+        <v>1.9865430861723448</v>
       </c>
       <c r="G40" s="2">
-        <v>1.9654969939879767</v>
+        <v>1.9865430861723448</v>
       </c>
       <c r="H40" s="1">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>6.5496993987976815E-2</v>
+        <v>0.11654308617234466</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F41">
-        <v>2.0680000000000001</v>
+        <v>1.9862545090180364</v>
       </c>
       <c r="G41" s="2">
-        <v>2.0680000000000001</v>
+        <v>1.9862545090180364</v>
       </c>
       <c r="H41" s="1">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>0.16800000000000015</v>
+        <v>0.11625450901803625</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -1687,28 +1687,28 @@
         <v>500</v>
       </c>
       <c r="F42">
-        <v>1.9484509018036071</v>
+        <v>2.032426853707415</v>
       </c>
       <c r="G42" s="2">
-        <v>1.9865430861723448</v>
+        <v>2.032426853707415</v>
       </c>
       <c r="H42" s="1">
         <v>1.87</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>0.11654308617234466</v>
+        <v>0.16242685370741494</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -1717,28 +1717,28 @@
         <v>500</v>
       </c>
       <c r="F43">
-        <v>1.9519138276553107</v>
+        <v>1.9790400801603207</v>
       </c>
       <c r="G43" s="2">
-        <v>1.9862545090180364</v>
+        <v>1.9790400801603207</v>
       </c>
       <c r="H43" s="1">
         <v>1.87</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>0.11625450901803625</v>
+        <v>0.10904008016032063</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -1747,28 +1747,28 @@
         <v>500</v>
       </c>
       <c r="F44">
-        <v>1.9481623246492985</v>
+        <v>1.9738456913827653</v>
       </c>
       <c r="G44" s="2">
-        <v>2.032426853707415</v>
+        <v>1.9738456913827653</v>
       </c>
       <c r="H44" s="1">
         <v>1.87</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>0.16242685370741494</v>
+        <v>0.10384569138276523</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
@@ -1777,28 +1777,28 @@
         <v>500</v>
       </c>
       <c r="F45">
-        <v>1.9510480961923848</v>
+        <v>1.9879859719438884</v>
       </c>
       <c r="G45" s="2">
-        <v>1.9790400801603207</v>
+        <v>1.9879859719438884</v>
       </c>
       <c r="H45" s="1">
         <v>1.87</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>0.10904008016032063</v>
+        <v>0.11798597194388827</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -1807,28 +1807,28 @@
         <v>500</v>
       </c>
       <c r="F46">
-        <v>1.9429679358717438</v>
+        <v>1.9770200400801605</v>
       </c>
       <c r="G46" s="2">
-        <v>1.9738456913827653</v>
+        <v>1.9770200400801605</v>
       </c>
       <c r="H46" s="1">
         <v>1.87</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>0.10384569138276523</v>
+        <v>0.10702004008016042</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>7</v>
@@ -1837,28 +1837,28 @@
         <v>500</v>
       </c>
       <c r="F47">
-        <v>1.9752885771543085</v>
+        <v>2.065324649298597</v>
       </c>
       <c r="G47" s="2">
-        <v>1.9879859719438884</v>
+        <v>2.065324649298597</v>
       </c>
       <c r="H47" s="1">
         <v>1.87</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>0.11798597194388827</v>
+        <v>0.19532464929859694</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>7</v>
@@ -1867,28 +1867,28 @@
         <v>500</v>
       </c>
       <c r="F48">
-        <v>1.9444108216432869</v>
+        <v>1.9885631262525043</v>
       </c>
       <c r="G48" s="2">
-        <v>1.9770200400801605</v>
+        <v>1.9885631262525043</v>
       </c>
       <c r="H48" s="1">
         <v>1.87</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>0.10702004008016042</v>
+        <v>0.1185631262525042</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
@@ -1897,28 +1897,28 @@
         <v>500</v>
       </c>
       <c r="F49">
-        <v>1.9891402805611225</v>
+        <v>1.9963547094188376</v>
       </c>
       <c r="G49" s="2">
-        <v>2.065324649298597</v>
+        <v>1.9963547094188376</v>
       </c>
       <c r="H49" s="1">
         <v>1.87</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>0.19532464929859694</v>
+        <v>0.12635470941883753</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -1927,28 +1927,28 @@
         <v>500</v>
       </c>
       <c r="F50">
-        <v>1.9475851703406817</v>
+        <v>1.9914488977955913</v>
       </c>
       <c r="G50" s="2">
-        <v>1.9885631262525043</v>
+        <v>1.9914488977955913</v>
       </c>
       <c r="H50" s="1">
         <v>1.87</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>0.1185631262525042</v>
+        <v>0.1214488977955912</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>7</v>
@@ -1957,28 +1957,28 @@
         <v>500</v>
       </c>
       <c r="F51">
-        <v>1.9674969939879761</v>
+        <v>1.9969318637274549</v>
       </c>
       <c r="G51" s="2">
-        <v>1.9963547094188376</v>
+        <v>1.9969318637274549</v>
       </c>
       <c r="H51" s="1">
         <v>1.87</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>0.12635470941883753</v>
+        <v>0.1269318637274548</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -1987,28 +1987,28 @@
         <v>500</v>
       </c>
       <c r="F52">
-        <v>1.9400821643286574</v>
+        <v>1.9917374749498999</v>
       </c>
       <c r="G52" s="2">
-        <v>1.9914488977955913</v>
+        <v>1.9917374749498999</v>
       </c>
       <c r="H52" s="1">
         <v>1.87</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>0.1214488977955912</v>
+        <v>0.12173747494989984</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -2017,28 +2017,28 @@
         <v>500</v>
       </c>
       <c r="F53">
-        <v>1.9585511022044089</v>
+        <v>1.9703827655310626</v>
       </c>
       <c r="G53" s="2">
-        <v>1.9969318637274549</v>
+        <v>1.9703827655310626</v>
       </c>
       <c r="H53" s="1">
         <v>1.87</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>0.1269318637274548</v>
+        <v>0.10038276553106251</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
@@ -2047,28 +2047,28 @@
         <v>500</v>
       </c>
       <c r="F54">
-        <v>1.9718256513026051</v>
+        <v>2.0067434869739476</v>
       </c>
       <c r="G54" s="2">
-        <v>1.9917374749498999</v>
+        <v>2.0067434869739476</v>
       </c>
       <c r="H54" s="1">
         <v>1.87</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>0.12173747494989984</v>
+        <v>0.13674348697394745</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>7</v>
@@ -2077,28 +2077,28 @@
         <v>500</v>
       </c>
       <c r="F55">
-        <v>1.9198817635270542</v>
+        <v>1.9911603206412829</v>
       </c>
       <c r="G55" s="2">
-        <v>1.9703827655310626</v>
+        <v>1.9911603206412829</v>
       </c>
       <c r="H55" s="1">
         <v>1.87</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>0.10038276553106251</v>
+        <v>0.12116032064128279</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>7</v>
@@ -2107,28 +2107,28 @@
         <v>500</v>
       </c>
       <c r="F56">
-        <v>1.9787515030060123</v>
+        <v>2.0044348697394789</v>
       </c>
       <c r="G56" s="2">
-        <v>2.0067434869739476</v>
+        <v>2.0044348697394789</v>
       </c>
       <c r="H56" s="1">
         <v>1.87</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="0"/>
-        <v>0.13674348697394745</v>
+        <v>0.13443486973947882</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -2137,28 +2137,28 @@
         <v>500</v>
       </c>
       <c r="F57">
-        <v>1.9322905811623241</v>
+        <v>1.9724028056112226</v>
       </c>
       <c r="G57" s="2">
-        <v>1.9911603206412829</v>
+        <v>1.9724028056112226</v>
       </c>
       <c r="H57" s="1">
         <v>1.87</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
-        <v>0.12116032064128279</v>
+        <v>0.1024028056112225</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>7</v>
@@ -2167,118 +2167,118 @@
         <v>500</v>
       </c>
       <c r="F58">
-        <v>1.9611482965931868</v>
+        <v>1.9784629258517035</v>
       </c>
       <c r="G58" s="2">
-        <v>2.0044348697394789</v>
+        <v>1.9784629258517035</v>
       </c>
       <c r="H58" s="1">
         <v>1.87</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="0"/>
-        <v>0.13443486973947882</v>
+        <v>0.10846292585170336</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E59" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>1.9276733466933866</v>
+        <v>2.0266392785571137</v>
       </c>
       <c r="G59" s="2">
-        <v>1.9724028056112226</v>
+        <v>2.0266392785571137</v>
       </c>
       <c r="H59" s="1">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
-        <v>0.1024028056112225</v>
+        <v>4.6639278557113695E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>1.9559539078156312</v>
+        <v>2.0216292585170348</v>
       </c>
       <c r="G60" s="2">
-        <v>1.9784629258517035</v>
+        <v>2.0216292585170348</v>
       </c>
       <c r="H60" s="1">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
-        <v>0.10846292585170336</v>
+        <v>4.1629258517034806E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>2.0053006012024044</v>
+        <v>2.021779559118237</v>
       </c>
       <c r="G61" s="2">
-        <v>2.0840821643286578</v>
+        <v>2.021779559118237</v>
       </c>
       <c r="H61" s="1">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="0"/>
-        <v>0.21408216432865768</v>
+        <v>4.1779559118237053E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
@@ -2287,28 +2287,28 @@
         <v>5</v>
       </c>
       <c r="F62">
-        <v>2.0159679358717426</v>
+        <v>2.0187234468937874</v>
       </c>
       <c r="G62" s="2">
-        <v>2.0266392785571137</v>
+        <v>2.0187234468937874</v>
       </c>
       <c r="H62" s="1">
         <v>1.98</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="0"/>
-        <v>4.6639278557113695E-2</v>
+        <v>3.8723446893787372E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -2317,28 +2317,28 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>2.0120100200400799</v>
+        <v>2.0252364729458914</v>
       </c>
       <c r="G63" s="2">
-        <v>2.0216292585170348</v>
+        <v>2.0252364729458914</v>
       </c>
       <c r="H63" s="1">
         <v>1.98</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="0"/>
-        <v>4.1629258517034806E-2</v>
+        <v>4.5236472945891393E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
@@ -2347,28 +2347,28 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <v>2.0117595190380761</v>
+        <v>2.0180220440881764</v>
       </c>
       <c r="G64" s="2">
-        <v>2.021779559118237</v>
+        <v>2.0180220440881764</v>
       </c>
       <c r="H64" s="1">
         <v>1.98</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1779559118237053E-2</v>
+        <f t="shared" ref="I64:I115" si="1">G64-H64</f>
+        <v>3.8022044088176443E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
@@ -2377,28 +2377,28 @@
         <v>5</v>
       </c>
       <c r="F65">
-        <v>2.0090040080160314</v>
+        <v>2.0216292585170343</v>
       </c>
       <c r="G65" s="2">
-        <v>2.0187234468937874</v>
+        <v>2.0216292585170343</v>
       </c>
       <c r="H65" s="1">
         <v>1.98</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8723446893787372E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1629258517034362E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
@@ -2407,28 +2407,28 @@
         <v>5</v>
       </c>
       <c r="F66">
-        <v>2.0156172344689374</v>
+        <v>2.0230821643286578</v>
       </c>
       <c r="G66" s="2">
-        <v>2.0252364729458914</v>
+        <v>2.0230821643286578</v>
       </c>
       <c r="H66" s="1">
         <v>1.98</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5236472945891393E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.3082164328657857E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
@@ -2437,28 +2437,28 @@
         <v>5</v>
       </c>
       <c r="F67">
-        <v>2.0073006012024051</v>
+        <v>2.032</v>
       </c>
       <c r="G67" s="2">
-        <v>2.0180220440881764</v>
+        <v>2.032</v>
       </c>
       <c r="H67" s="1">
         <v>1.98</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I121" si="1">G67-H67</f>
-        <v>3.8022044088176443E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2000000000000046E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
@@ -2467,28 +2467,28 @@
         <v>5</v>
       </c>
       <c r="F68">
-        <v>2.0117094188376754</v>
+        <v>2.0266893787575149</v>
       </c>
       <c r="G68" s="2">
-        <v>2.0216292585170343</v>
+        <v>2.0266893787575149</v>
       </c>
       <c r="H68" s="1">
         <v>1.98</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" si="1"/>
-        <v>4.1629258517034362E-2</v>
+        <v>4.6689378757514888E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
@@ -2497,28 +2497,28 @@
         <v>5</v>
       </c>
       <c r="F69">
-        <v>2.0143146292585175</v>
+        <v>2.0284929859719445</v>
       </c>
       <c r="G69" s="2">
-        <v>2.0230821643286578</v>
+        <v>2.0284929859719445</v>
       </c>
       <c r="H69" s="1">
         <v>1.98</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="1"/>
-        <v>4.3082164328657857E-2</v>
+        <v>4.8492985971944513E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
@@ -2527,28 +2527,28 @@
         <v>5</v>
       </c>
       <c r="F70">
-        <v>2.032</v>
+        <v>2.0244348697394789</v>
       </c>
       <c r="G70" s="2">
-        <v>2.032</v>
+        <v>2.0244348697394789</v>
       </c>
       <c r="H70" s="1">
         <v>1.98</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" si="1"/>
-        <v>5.2000000000000046E-2</v>
+        <v>4.4434869739478966E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
@@ -2557,28 +2557,28 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <v>2.0143146292585175</v>
+        <v>2.0234328657314626</v>
       </c>
       <c r="G71" s="2">
-        <v>2.0266893787575149</v>
+        <v>2.0234328657314626</v>
       </c>
       <c r="H71" s="1">
         <v>1.98</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" si="1"/>
-        <v>4.6689378757514888E-2</v>
+        <v>4.3432865731462655E-2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
@@ -2587,28 +2587,28 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <v>2.018773547094189</v>
+        <v>2.03019639278557</v>
       </c>
       <c r="G72" s="2">
-        <v>2.0284929859719445</v>
+        <v>2.03019639278557</v>
       </c>
       <c r="H72" s="1">
         <v>1.98</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" si="1"/>
-        <v>4.8492985971944513E-2</v>
+        <v>5.0196392785569977E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
@@ -2617,28 +2617,28 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <v>2.0129118236472947</v>
+        <v>2.0206773547094183</v>
       </c>
       <c r="G73" s="2">
-        <v>2.0244348697394789</v>
+        <v>2.0206773547094183</v>
       </c>
       <c r="H73" s="1">
         <v>1.98</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" si="1"/>
-        <v>4.4434869739478966E-2</v>
+        <v>4.0677354709418356E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
@@ -2647,28 +2647,28 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>2.0139639278557118</v>
+        <v>2.032</v>
       </c>
       <c r="G74" s="2">
-        <v>2.0234328657314626</v>
+        <v>2.032</v>
       </c>
       <c r="H74" s="1">
         <v>1.98</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" si="1"/>
-        <v>4.3432865731462655E-2</v>
+        <v>5.2000000000000046E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
@@ -2677,28 +2677,28 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>2.0225811623246486</v>
+        <v>2.032</v>
       </c>
       <c r="G75" s="2">
-        <v>2.03019639278557</v>
+        <v>2.032</v>
       </c>
       <c r="H75" s="1">
         <v>1.98</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" si="1"/>
-        <v>5.0196392785569977E-2</v>
+        <v>5.2000000000000046E-2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
@@ -2707,28 +2707,28 @@
         <v>5</v>
       </c>
       <c r="F76">
-        <v>2.0088537074148292</v>
+        <v>2.032</v>
       </c>
       <c r="G76" s="2">
-        <v>2.0206773547094183</v>
+        <v>2.032</v>
       </c>
       <c r="H76" s="1">
         <v>1.98</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" si="1"/>
-        <v>4.0677354709418356E-2</v>
+        <v>5.2000000000000046E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
@@ -2737,148 +2737,148 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>2.032</v>
+        <v>2.025687374749499</v>
       </c>
       <c r="G77" s="2">
-        <v>2.032</v>
+        <v>2.025687374749499</v>
       </c>
       <c r="H77" s="1">
         <v>1.98</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" si="1"/>
-        <v>5.2000000000000046E-2</v>
+        <v>4.5687374749499021E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F78">
-        <v>2.032</v>
+        <v>1.9431342685370745</v>
       </c>
       <c r="G78" s="2">
-        <v>2.032</v>
+        <v>1.9431342685370745</v>
       </c>
       <c r="H78" s="1">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" si="1"/>
-        <v>5.2000000000000046E-2</v>
+        <v>5.3134268537074592E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F79">
-        <v>2.0318997995991985</v>
+        <v>1.9457995991983963</v>
       </c>
       <c r="G79" s="2">
-        <v>2.032</v>
+        <v>1.9457995991983963</v>
       </c>
       <c r="H79" s="1">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="1"/>
-        <v>5.2000000000000046E-2</v>
+        <v>5.5799599198396388E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F80">
-        <v>2.0155170340681359</v>
+        <v>1.9461042084168336</v>
       </c>
       <c r="G80" s="2">
-        <v>2.025687374749499</v>
+        <v>1.9461042084168336</v>
       </c>
       <c r="H80" s="1">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="1"/>
-        <v>4.5687374749499021E-2</v>
+        <v>5.6104208416833723E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F81">
-        <v>2.032</v>
+        <v>1.9306452905811622</v>
       </c>
       <c r="G81" s="2">
-        <v>2.032</v>
+        <v>1.9306452905811622</v>
       </c>
       <c r="H81" s="1">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="1"/>
-        <v>5.2000000000000046E-2</v>
+        <v>4.0645290581162286E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -2887,28 +2887,28 @@
         <v>50</v>
       </c>
       <c r="F82">
-        <v>1.9349098196392787</v>
+        <v>1.946104208416833</v>
       </c>
       <c r="G82" s="2">
-        <v>1.9431342685370745</v>
+        <v>1.946104208416833</v>
       </c>
       <c r="H82" s="1">
         <v>1.89</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="1"/>
-        <v>5.3134268537074592E-2</v>
+        <v>5.6104208416833057E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
@@ -2917,28 +2917,28 @@
         <v>50</v>
       </c>
       <c r="F83">
-        <v>1.9380320641282562</v>
+        <v>1.9383366733466938</v>
       </c>
       <c r="G83" s="2">
-        <v>1.9457995991983963</v>
+        <v>1.9383366733466938</v>
       </c>
       <c r="H83" s="1">
         <v>1.89</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="1"/>
-        <v>5.5799599198396388E-2</v>
+        <v>4.8336673346693892E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>9</v>
@@ -2947,28 +2947,28 @@
         <v>50</v>
       </c>
       <c r="F84">
-        <v>1.9371943887775553</v>
+        <v>1.9346813627254507</v>
       </c>
       <c r="G84" s="2">
-        <v>1.9461042084168336</v>
+        <v>1.9346813627254507</v>
       </c>
       <c r="H84" s="1">
         <v>1.89</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" si="1"/>
-        <v>5.6104208416833723E-2</v>
+        <v>4.4681362725450757E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
@@ -2977,28 +2977,28 @@
         <v>50</v>
       </c>
       <c r="F85">
-        <v>1.9238677354709419</v>
+        <v>1.9483887775551103</v>
       </c>
       <c r="G85" s="2">
-        <v>1.9306452905811622</v>
+        <v>1.9483887775551103</v>
       </c>
       <c r="H85" s="1">
         <v>1.89</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" si="1"/>
-        <v>4.0645290581162286E-2</v>
+        <v>5.8388777555110405E-2</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>9</v>
@@ -3007,28 +3007,28 @@
         <v>50</v>
       </c>
       <c r="F86">
-        <v>1.9394028056112222</v>
+        <v>1.9579078156312628</v>
       </c>
       <c r="G86" s="2">
-        <v>1.946104208416833</v>
+        <v>1.9579078156312628</v>
       </c>
       <c r="H86" s="1">
         <v>1.89</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="1"/>
-        <v>5.6104208416833057E-2</v>
+        <v>6.7907815631262913E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>9</v>
@@ -3037,28 +3037,28 @@
         <v>50</v>
       </c>
       <c r="F87">
-        <v>1.929503006012024</v>
+        <v>1.9532625250501001</v>
       </c>
       <c r="G87" s="2">
-        <v>1.9383366733466938</v>
+        <v>1.9532625250501001</v>
       </c>
       <c r="H87" s="1">
         <v>1.89</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="1"/>
-        <v>4.8336673346693892E-2</v>
+        <v>6.3262525050100216E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>9</v>
@@ -3067,28 +3067,28 @@
         <v>50</v>
       </c>
       <c r="F88">
-        <v>1.9277515030060119</v>
+        <v>1.9533386773547097</v>
       </c>
       <c r="G88" s="2">
-        <v>1.9346813627254507</v>
+        <v>1.9533386773547097</v>
       </c>
       <c r="H88" s="1">
         <v>1.89</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" si="1"/>
-        <v>4.4681362725450757E-2</v>
+        <v>6.3338677354709771E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>9</v>
@@ -3097,28 +3097,28 @@
         <v>50</v>
       </c>
       <c r="F89">
-        <v>1.9392505010020038</v>
+        <v>1.9403166332665327</v>
       </c>
       <c r="G89" s="2">
-        <v>1.9483887775551103</v>
+        <v>1.9403166332665327</v>
       </c>
       <c r="H89" s="1">
         <v>1.89</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" si="1"/>
-        <v>5.8388777555110405E-2</v>
+        <v>5.0316633266532795E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>9</v>
@@ -3127,28 +3127,28 @@
         <v>50</v>
       </c>
       <c r="F90">
-        <v>1.9530340681362723</v>
+        <v>1.9430581162324649</v>
       </c>
       <c r="G90" s="2">
-        <v>1.9579078156312628</v>
+        <v>1.9430581162324649</v>
       </c>
       <c r="H90" s="1">
         <v>1.89</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="1"/>
-        <v>6.7907815631262913E-2</v>
+        <v>5.3058116232465036E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>9</v>
@@ -3157,28 +3157,28 @@
         <v>50</v>
       </c>
       <c r="F91">
-        <v>1.9359759519038076</v>
+        <v>1.9511302605210419</v>
       </c>
       <c r="G91" s="2">
-        <v>1.9532625250501001</v>
+        <v>1.9511302605210419</v>
       </c>
       <c r="H91" s="1">
         <v>1.89</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" si="1"/>
-        <v>6.3262525050100216E-2</v>
+        <v>6.1130260521041979E-2</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
@@ -3187,28 +3187,28 @@
         <v>50</v>
       </c>
       <c r="F92">
-        <v>1.945418837675351</v>
+        <v>1.9462565130260518</v>
       </c>
       <c r="G92" s="2">
-        <v>1.9533386773547097</v>
+        <v>1.9462565130260518</v>
       </c>
       <c r="H92" s="1">
         <v>1.89</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" si="1"/>
-        <v>6.3338677354709771E-2</v>
+        <v>5.6256513026051946E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>9</v>
@@ -3217,28 +3217,28 @@
         <v>50</v>
       </c>
       <c r="F93">
-        <v>1.9336913827655311</v>
+        <v>1.9611062124248497</v>
       </c>
       <c r="G93" s="2">
-        <v>1.9403166332665327</v>
+        <v>1.9611062124248497</v>
       </c>
       <c r="H93" s="1">
         <v>1.89</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" si="1"/>
-        <v>5.0316633266532795E-2</v>
+        <v>7.1106212424849824E-2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
@@ -3247,28 +3247,28 @@
         <v>50</v>
       </c>
       <c r="F94">
-        <v>1.93376753507014</v>
+        <v>1.952805611222445</v>
       </c>
       <c r="G94" s="2">
-        <v>1.9430581162324649</v>
+        <v>1.952805611222445</v>
       </c>
       <c r="H94" s="1">
         <v>1.89</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" si="1"/>
-        <v>5.3058116232465036E-2</v>
+        <v>6.2805611222445101E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>9</v>
@@ -3277,28 +3277,28 @@
         <v>50</v>
       </c>
       <c r="F95">
-        <v>1.9426773547094187</v>
+        <v>1.9553947895791586</v>
       </c>
       <c r="G95" s="2">
-        <v>1.9511302605210419</v>
+        <v>1.9553947895791586</v>
       </c>
       <c r="H95" s="1">
         <v>1.89</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" si="1"/>
-        <v>6.1130260521041979E-2</v>
+        <v>6.5394789579158674E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>9</v>
@@ -3307,178 +3307,178 @@
         <v>50</v>
       </c>
       <c r="F96">
-        <v>1.9286653306613226</v>
+        <v>1.948921843687375</v>
       </c>
       <c r="G96" s="2">
-        <v>1.9462565130260518</v>
+        <v>1.948921843687375</v>
       </c>
       <c r="H96" s="1">
         <v>1.89</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" si="1"/>
-        <v>5.6256513026051946E-2</v>
+        <v>5.8921843687375075E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F97">
-        <v>1.9503687374749497</v>
+        <v>1.9900701402805612</v>
       </c>
       <c r="G97" s="2">
-        <v>1.9611062124248497</v>
+        <v>1.9900701402805612</v>
       </c>
       <c r="H97" s="1">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" si="1"/>
-        <v>7.1106212424849824E-2</v>
+        <v>5.0070140280561226E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F98">
-        <v>1.9397835671342685</v>
+        <v>1.9693927855711428</v>
       </c>
       <c r="G98" s="2">
-        <v>1.952805611222445</v>
+        <v>1.9693927855711428</v>
       </c>
       <c r="H98" s="1">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" si="1"/>
-        <v>6.2805611222445101E-2</v>
+        <v>2.9392785571142888E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F99">
-        <v>1.9467895791583163</v>
+        <v>1.98898997995992</v>
       </c>
       <c r="G99" s="2">
-        <v>1.9553947895791586</v>
+        <v>1.98898997995992</v>
       </c>
       <c r="H99" s="1">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" si="1"/>
-        <v>6.5394789579158674E-2</v>
+        <v>4.8989979959920049E-2</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F100">
-        <v>1.9414589178356714</v>
+        <v>1.9812745490981962</v>
       </c>
       <c r="G100" s="2">
-        <v>1.948921843687375</v>
+        <v>1.9812745490981962</v>
       </c>
       <c r="H100" s="1">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="1"/>
-        <v>5.8921843687375075E-2</v>
+        <v>4.1274549098196278E-2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F101">
-        <v>1.964</v>
+        <v>1.9661523046092186</v>
       </c>
       <c r="G101" s="2">
-        <v>1.964</v>
+        <v>1.9661523046092186</v>
       </c>
       <c r="H101" s="1">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="I101" s="2">
         <f t="shared" si="1"/>
-        <v>7.4000000000000066E-2</v>
+        <v>2.6152304609218691E-2</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>9</v>
@@ -3487,28 +3487,28 @@
         <v>500</v>
       </c>
       <c r="F102">
-        <v>1.9723246492985971</v>
+        <v>1.9584368737474953</v>
       </c>
       <c r="G102" s="2">
-        <v>1.9900701402805612</v>
+        <v>1.9584368737474953</v>
       </c>
       <c r="H102" s="1">
         <v>1.94</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" si="1"/>
-        <v>5.0070140280561226E-2</v>
+        <v>1.8436873747495364E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>9</v>
@@ -3517,28 +3517,28 @@
         <v>500</v>
       </c>
       <c r="F103">
-        <v>1.9588997995991986</v>
+        <v>1.9706272545090184</v>
       </c>
       <c r="G103" s="2">
-        <v>1.9693927855711428</v>
+        <v>1.9706272545090184</v>
       </c>
       <c r="H103" s="1">
         <v>1.94</v>
       </c>
       <c r="I103" s="2">
         <f t="shared" si="1"/>
-        <v>2.9392785571142888E-2</v>
+        <v>3.0627254509018487E-2</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>9</v>
@@ -3547,28 +3547,28 @@
         <v>500</v>
       </c>
       <c r="F104">
-        <v>1.9681583166332668</v>
+        <v>1.9771082164328657</v>
       </c>
       <c r="G104" s="2">
-        <v>1.98898997995992</v>
+        <v>1.9771082164328657</v>
       </c>
       <c r="H104" s="1">
         <v>1.94</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" si="1"/>
-        <v>4.8989979959920049E-2</v>
+        <v>3.710821643286577E-2</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>9</v>
@@ -3577,28 +3577,28 @@
         <v>500</v>
       </c>
       <c r="F105">
-        <v>1.9664609218436873</v>
+        <v>1.9769539078156311</v>
       </c>
       <c r="G105" s="2">
-        <v>1.9812745490981962</v>
+        <v>1.9769539078156311</v>
       </c>
       <c r="H105" s="1">
         <v>1.94</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" si="1"/>
-        <v>4.1274549098196278E-2</v>
+        <v>3.6953907815631126E-2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
@@ -3607,28 +3607,28 @@
         <v>500</v>
       </c>
       <c r="F106">
-        <v>1.9562765531062123</v>
+        <v>2.0116733466933865</v>
       </c>
       <c r="G106" s="2">
-        <v>1.9661523046092186</v>
+        <v>2.0116733466933865</v>
       </c>
       <c r="H106" s="1">
         <v>1.94</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" si="1"/>
-        <v>2.6152304609218691E-2</v>
+        <v>7.1673346693386542E-2</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>9</v>
@@ -3637,28 +3637,28 @@
         <v>500</v>
       </c>
       <c r="F107">
-        <v>1.9527274549098197</v>
+        <v>1.9916132264529056</v>
       </c>
       <c r="G107" s="2">
-        <v>1.9584368737474953</v>
+        <v>1.9916132264529056</v>
       </c>
       <c r="H107" s="1">
         <v>1.94</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" si="1"/>
-        <v>1.8436873747495364E-2</v>
+        <v>5.1613226452905669E-2</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>9</v>
@@ -3667,28 +3667,28 @@
         <v>500</v>
       </c>
       <c r="F108">
-        <v>1.9607515030060121</v>
+        <v>1.9996372745490987</v>
       </c>
       <c r="G108" s="2">
-        <v>1.9706272545090184</v>
+        <v>1.9996372745490987</v>
       </c>
       <c r="H108" s="1">
         <v>1.94</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" si="1"/>
-        <v>3.0627254509018487E-2</v>
+        <v>5.9637274549098729E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
@@ -3697,28 +3697,28 @@
         <v>500</v>
       </c>
       <c r="F109">
-        <v>1.9627575150300602</v>
+        <v>1.9730961923847696</v>
       </c>
       <c r="G109" s="2">
-        <v>1.9771082164328657</v>
+        <v>1.9730961923847696</v>
       </c>
       <c r="H109" s="1">
         <v>1.94</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" si="1"/>
-        <v>3.710821643286577E-2</v>
+        <v>3.3096192384769685E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>9</v>
@@ -3727,28 +3727,28 @@
         <v>500</v>
       </c>
       <c r="F110">
-        <v>1.9627575150300602</v>
+        <v>1.9720160320641289</v>
       </c>
       <c r="G110" s="2">
-        <v>1.9769539078156311</v>
+        <v>1.9720160320641289</v>
       </c>
       <c r="H110" s="1">
         <v>1.94</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" si="1"/>
-        <v>3.6953907815631126E-2</v>
+        <v>3.2016032064128952E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
@@ -3757,28 +3757,28 @@
         <v>500</v>
       </c>
       <c r="F111">
-        <v>1.9859038076152304</v>
+        <v>1.9695470941883773</v>
       </c>
       <c r="G111" s="2">
-        <v>2.0116733466933865</v>
+        <v>1.9695470941883773</v>
       </c>
       <c r="H111" s="1">
         <v>1.94</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" si="1"/>
-        <v>7.1673346693386542E-2</v>
+        <v>2.954709418837731E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
@@ -3787,28 +3787,28 @@
         <v>500</v>
       </c>
       <c r="F112">
-        <v>1.9720160320641285</v>
+        <v>1.9690841683366735</v>
       </c>
       <c r="G112" s="2">
-        <v>1.9916132264529056</v>
+        <v>1.9690841683366735</v>
       </c>
       <c r="H112" s="1">
         <v>1.94</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" si="1"/>
-        <v>5.1613226452905669E-2</v>
+        <v>2.9084168336673599E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
@@ -3817,28 +3817,28 @@
         <v>500</v>
       </c>
       <c r="F113">
-        <v>1.9842064128256514</v>
+        <v>2.0113647294589176</v>
       </c>
       <c r="G113" s="2">
-        <v>1.9996372745490987</v>
+        <v>2.0113647294589176</v>
       </c>
       <c r="H113" s="1">
         <v>1.94</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" si="1"/>
-        <v>5.9637274549098729E-2</v>
+        <v>7.1364729458917697E-2</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
@@ -3847,28 +3847,28 @@
         <v>500</v>
       </c>
       <c r="F114">
-        <v>1.9630661322645291</v>
+        <v>2.0024148296593185</v>
       </c>
       <c r="G114" s="2">
-        <v>1.9730961923847696</v>
+        <v>2.0024148296593185</v>
       </c>
       <c r="H114" s="1">
         <v>1.94</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" si="1"/>
-        <v>3.3096192384769685E-2</v>
+        <v>6.2414829659318549E-2</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
@@ -3877,197 +3877,17 @@
         <v>500</v>
       </c>
       <c r="F115">
-        <v>1.9596713426853709</v>
+        <v>1.9852865731462932</v>
       </c>
       <c r="G115" s="2">
-        <v>1.9720160320641289</v>
+        <v>1.9852865731462932</v>
       </c>
       <c r="H115" s="1">
         <v>1.94</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" si="1"/>
-        <v>3.2016032064128952E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="1">
-        <v>15</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="1">
-        <v>500</v>
-      </c>
-      <c r="F116">
-        <v>1.9602885771543086</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1.9695470941883773</v>
-      </c>
-      <c r="H116" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="I116" s="2">
-        <f t="shared" si="1"/>
-        <v>2.954709418837731E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="1">
-        <v>16</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="1">
-        <v>500</v>
-      </c>
-      <c r="F117">
-        <v>1.9592084168336672</v>
-      </c>
-      <c r="G117" s="2">
-        <v>1.9690841683366735</v>
-      </c>
-      <c r="H117" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="I117" s="2">
-        <f t="shared" si="1"/>
-        <v>2.9084168336673599E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="1">
-        <v>17</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="1">
-        <v>500</v>
-      </c>
-      <c r="F118">
-        <v>1.9840521042084169</v>
-      </c>
-      <c r="G118" s="2">
-        <v>2.0113647294589176</v>
-      </c>
-      <c r="H118" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="I118" s="2">
-        <f t="shared" si="1"/>
-        <v>7.1364729458917697E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="1">
-        <v>18</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="1">
-        <v>500</v>
-      </c>
-      <c r="F119">
-        <v>1.9892985971943891</v>
-      </c>
-      <c r="G119" s="2">
-        <v>2.0024148296593185</v>
-      </c>
-      <c r="H119" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="I119" s="2">
-        <f t="shared" si="1"/>
-        <v>6.2414829659318549E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="1">
-        <v>19</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="1">
-        <v>500</v>
-      </c>
-      <c r="F120">
-        <v>1.9707815631262526</v>
-      </c>
-      <c r="G120" s="2">
-        <v>1.9852865731462932</v>
-      </c>
-      <c r="H120" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="I120" s="2">
-        <f t="shared" si="1"/>
         <v>4.5286573146293252E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="1">
-        <v>20</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121" s="1">
-        <v>500</v>
-      </c>
-      <c r="F121">
-        <v>2.0374428857715432</v>
-      </c>
-      <c r="G121" s="2">
-        <v>2.0828096192384771</v>
-      </c>
-      <c r="H121" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="I121" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14280961923847713</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/statistics/rawdataAnovaSharpnessDiffThresholdWithout9Sub.xlsx
+++ b/matlab/statistics/rawdataAnovaSharpnessDiffThresholdWithout9Sub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\thesis\matlab\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188AF66F-A693-4990-A522-2075A1460151}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A15C79B-22FE-4D0B-B388-CA87B33C14DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{7AF3A03D-CE9E-409E-9E62-EADF04CEEE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D8E72B-909E-4713-9154-9D34E1C8C58B}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F115"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,14 +490,14 @@
         <v>1.9858056112224447</v>
       </c>
       <c r="G2" s="2">
-        <v>1.9858056112224447</v>
+        <v>1.9718339169584793</v>
       </c>
       <c r="H2" s="1">
         <v>1.9</v>
       </c>
       <c r="I2" s="2">
         <f>G2-H2</f>
-        <v>8.5805611222444789E-2</v>
+        <v>7.1833916958479405E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -520,14 +520,14 @@
         <v>1.9952865731462925</v>
       </c>
       <c r="G3" s="2">
-        <v>1.9952865731462925</v>
+        <v>1.9568241620810403</v>
       </c>
       <c r="H3" s="1">
         <v>1.9</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I63" si="0">G3-H3</f>
-        <v>9.528657314629263E-2</v>
+        <v>5.6824162081040352E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -550,14 +550,14 @@
         <v>2.0249769539078155</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0249769539078155</v>
+        <v>1.9765050025012505</v>
       </c>
       <c r="H4" s="1">
         <v>1.9</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>0.1249769539078156</v>
+        <v>7.6505002501250585E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -580,14 +580,14 @@
         <v>2.003769539078156</v>
       </c>
       <c r="G5" s="2">
-        <v>2.003769539078156</v>
+        <v>1.9751348174087047</v>
       </c>
       <c r="H5" s="1">
         <v>1.9</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>0.10376953907815611</v>
+        <v>7.5134817408704757E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -610,14 +610,14 @@
         <v>1.9788196392785571</v>
       </c>
       <c r="G6" s="2">
-        <v>1.9788196392785571</v>
+        <v>1.9467968984492245</v>
       </c>
       <c r="H6" s="1">
         <v>1.9</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>7.8819639278557174E-2</v>
+        <v>4.6796898449224633E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -640,14 +640,14 @@
         <v>1.9810651302605213</v>
       </c>
       <c r="G7" s="2">
-        <v>1.9810651302605213</v>
+        <v>1.9733286643321661</v>
       </c>
       <c r="H7" s="1">
         <v>1.9</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>8.1065130260521423E-2</v>
+        <v>7.3328664332166227E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -670,14 +670,14 @@
         <v>2.1377505010020039</v>
       </c>
       <c r="G8" s="2">
-        <v>2.1377505010020039</v>
+        <v>2.0627643821910957</v>
       </c>
       <c r="H8" s="1">
         <v>1.9</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.23775050100200401</v>
+        <v>0.16276438219109579</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -700,14 +700,14 @@
         <v>2.0214839679358718</v>
       </c>
       <c r="G9" s="2">
-        <v>2.0214839679358718</v>
+        <v>1.9730172586293142</v>
       </c>
       <c r="H9" s="1">
         <v>1.9</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>0.12148396793587191</v>
+        <v>7.3017258629314297E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -760,14 +760,14 @@
         <v>2.0007755511022038</v>
       </c>
       <c r="G11" s="2">
-        <v>2.0007755511022038</v>
+        <v>1.966975987993997</v>
       </c>
       <c r="H11" s="1">
         <v>1.9</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>0.10077555110220393</v>
+        <v>6.6975987993997066E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -790,14 +790,14 @@
         <v>2.052</v>
       </c>
       <c r="G12" s="2">
-        <v>2.052</v>
+        <v>2.1363184092046024</v>
       </c>
       <c r="H12" s="1">
         <v>1.9</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>0.15200000000000014</v>
+        <v>0.23631840920460245</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -820,14 +820,14 @@
         <v>2.0082605210420841</v>
       </c>
       <c r="G13" s="2">
-        <v>2.0082605210420841</v>
+        <v>1.963737368684342</v>
       </c>
       <c r="H13" s="1">
         <v>1.9</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>0.10826052104208417</v>
+        <v>6.3737368684342099E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -850,14 +850,14 @@
         <v>2.0930901803607211</v>
       </c>
       <c r="G14" s="2">
-        <v>2.0930901803607211</v>
+        <v>2.0147456228114051</v>
       </c>
       <c r="H14" s="1">
         <v>1.9</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>0.19309018036072123</v>
+        <v>0.11474562281140521</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -880,14 +880,14 @@
         <v>2.0601563126252507</v>
       </c>
       <c r="G15" s="2">
-        <v>2.0601563126252507</v>
+        <v>2.0002341170585294</v>
       </c>
       <c r="H15" s="1">
         <v>1.9</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>0.16015631262525076</v>
+        <v>0.10023411705852947</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -910,14 +910,14 @@
         <v>2.0476813627254509</v>
       </c>
       <c r="G16" s="2">
-        <v>2.0476813627254509</v>
+        <v>1.9952516258129063</v>
       </c>
       <c r="H16" s="1">
         <v>1.9</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>0.14768136272545096</v>
+        <v>9.525162581290636E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -940,14 +940,14 @@
         <v>2.0481803607214428</v>
       </c>
       <c r="G17" s="2">
-        <v>2.0481803607214428</v>
+        <v>2.0335154205009474</v>
       </c>
       <c r="H17" s="1">
         <v>1.9</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>0.14818036072144292</v>
+        <v>0.13351542050094745</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -970,14 +970,14 @@
         <v>2.0115040080160318</v>
       </c>
       <c r="G18" s="2">
-        <v>2.0115040080160318</v>
+        <v>1.9621803401700848</v>
       </c>
       <c r="H18" s="1">
         <v>1.9</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>0.11150400801603189</v>
+        <v>6.2180340170084891E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1000,14 +1000,14 @@
         <v>2.1023216432865728</v>
       </c>
       <c r="G19" s="2">
-        <v>2.1023216432865728</v>
+        <v>2.0277623811905956</v>
       </c>
       <c r="H19" s="1">
         <v>1.9</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>0.20232164328657287</v>
+        <v>0.12776238119059569</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1030,14 +1030,14 @@
         <v>1.9783206412825656</v>
       </c>
       <c r="G20" s="2">
-        <v>1.9783206412825656</v>
+        <v>1.9660417708854423</v>
       </c>
       <c r="H20" s="1">
         <v>1.9</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="0"/>
-        <v>7.8320641282565662E-2</v>
+        <v>6.6041770885442386E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1060,14 +1060,14 @@
         <v>1.9906452905811631</v>
       </c>
       <c r="G21" s="2">
-        <v>1.9906452905811631</v>
+        <v>1.9615530265132564</v>
       </c>
       <c r="H21" s="1">
         <v>1.9</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
-        <v>9.0645290581163218E-2</v>
+        <v>6.1553026513256448E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1090,14 +1090,14 @@
         <v>1.9935881763527055</v>
       </c>
       <c r="G22" s="2">
-        <v>1.9935881763527055</v>
+        <v>1.9485970485242621</v>
       </c>
       <c r="H22" s="1">
         <v>1.9</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
-        <v>9.3588176352705554E-2</v>
+        <v>4.8597048524262165E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1120,14 +1120,14 @@
         <v>1.9911803607214438</v>
       </c>
       <c r="G23" s="2">
-        <v>1.9911803607214438</v>
+        <v>1.9582806403201602</v>
       </c>
       <c r="H23" s="1">
         <v>1.9</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
-        <v>9.1180360721443865E-2</v>
+        <v>5.8280640320160337E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1150,14 +1150,14 @@
         <v>2.0045571142284575</v>
       </c>
       <c r="G24" s="2">
-        <v>2.0045571142284575</v>
+        <v>1.9628219109554772</v>
       </c>
       <c r="H24" s="1">
         <v>1.9</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="0"/>
-        <v>0.10455711422845759</v>
+        <v>6.2821910955477289E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1180,14 +1180,14 @@
         <v>1.9831543086172354</v>
       </c>
       <c r="G25" s="2">
-        <v>1.9831543086172354</v>
+        <v>1.9669624812406206</v>
       </c>
       <c r="H25" s="1">
         <v>1.9</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>8.3154308617235495E-2</v>
+        <v>6.6962481240620653E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1210,14 +1210,14 @@
         <v>1.991715430861724</v>
       </c>
       <c r="G26" s="2">
-        <v>1.991715430861724</v>
+        <v>1.9682313656828418</v>
       </c>
       <c r="H26" s="1">
         <v>1.9</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>9.1715430861724068E-2</v>
+        <v>6.8231365682841938E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1240,14 +1240,14 @@
         <v>1.9515851703406801</v>
       </c>
       <c r="G27" s="2">
-        <v>1.9515851703406801</v>
+        <v>1.9281613306653331</v>
       </c>
       <c r="H27" s="1">
         <v>1.9</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>5.158517034068022E-2</v>
+        <v>2.8161330665333217E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1270,14 +1270,14 @@
         <v>2.0446873747494987</v>
       </c>
       <c r="G28" s="2">
-        <v>2.0446873747494987</v>
+        <v>1.9888006503251627</v>
       </c>
       <c r="H28" s="1">
         <v>1.9</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>0.14468737474949878</v>
+        <v>8.8800650325162822E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1300,14 +1300,14 @@
         <v>2.083212424849699</v>
       </c>
       <c r="G29" s="2">
-        <v>2.083212424849699</v>
+        <v>2.0082346173086543</v>
       </c>
       <c r="H29" s="1">
         <v>1.9</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
-        <v>0.18321242484969913</v>
+        <v>0.10823461730865436</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1330,14 +1330,14 @@
         <v>2.0026843687374751</v>
       </c>
       <c r="G30" s="2">
-        <v>2.0026843687374751</v>
+        <v>1.9582806403201605</v>
       </c>
       <c r="H30" s="1">
         <v>1.9</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="0"/>
-        <v>0.10268436873747522</v>
+        <v>5.8280640320160559E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1360,14 +1360,14 @@
         <v>2.003219438877756</v>
       </c>
       <c r="G31" s="2">
-        <v>2.003219438877756</v>
+        <v>1.9584142071035517</v>
       </c>
       <c r="H31" s="1">
         <v>1.9</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="0"/>
-        <v>0.10321943887775609</v>
+        <v>5.841420710355183E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1390,14 +1390,14 @@
         <v>1.9802114228456906</v>
       </c>
       <c r="G32" s="2">
-        <v>1.9802114228456906</v>
+        <v>1.9445232616308155</v>
       </c>
       <c r="H32" s="1">
         <v>1.9</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="0"/>
-        <v>8.0211422845690716E-2</v>
+        <v>4.4523261630815547E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1420,14 +1420,14 @@
         <v>1.9834218436873752</v>
       </c>
       <c r="G33" s="2">
-        <v>1.9834218436873752</v>
+        <v>1.969834167083542</v>
       </c>
       <c r="H33" s="1">
         <v>1.9</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>8.3421843687375263E-2</v>
+        <v>6.9834167083542065E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1450,14 +1450,14 @@
         <v>1.993588176352705</v>
       </c>
       <c r="G34" s="2">
-        <v>1.993588176352705</v>
+        <v>1.9460592796398202</v>
       </c>
       <c r="H34" s="1">
         <v>1.9</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>9.358817635270511E-2</v>
+        <v>4.6059279639820261E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1480,14 +1480,14 @@
         <v>1.9842244488977951</v>
       </c>
       <c r="G35" s="2">
-        <v>1.9842244488977951</v>
+        <v>1.9500662831415703</v>
       </c>
       <c r="H35" s="1">
         <v>1.9</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>8.4224448897795234E-2</v>
+        <v>5.0066283141570356E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1510,14 +1510,14 @@
         <v>2.0053597194388781</v>
       </c>
       <c r="G36" s="2">
-        <v>2.0053597194388781</v>
+        <v>1.9611523261630812</v>
       </c>
       <c r="H36" s="1">
         <v>1.9</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="0"/>
-        <v>0.10535971943887823</v>
+        <v>6.1152326163081305E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1540,14 +1540,14 @@
         <v>2.0141883767535065</v>
       </c>
       <c r="G37" s="2">
-        <v>2.0141883767535065</v>
+        <v>1.9785160080040021</v>
       </c>
       <c r="H37" s="1">
         <v>1.9</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="0"/>
-        <v>0.11418837675350657</v>
+        <v>7.8516008004002158E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1570,14 +1570,14 @@
         <v>2.110768537074148</v>
       </c>
       <c r="G38" s="2">
-        <v>2.110768537074148</v>
+        <v>2.0308074037018509</v>
       </c>
       <c r="H38" s="1">
         <v>1.9</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="0"/>
-        <v>0.21076853707414811</v>
+        <v>0.13080740370185096</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1600,14 +1600,14 @@
         <v>1.9654969939879767</v>
       </c>
       <c r="G39" s="2">
-        <v>1.9654969939879767</v>
+        <v>1.9386463231615807</v>
       </c>
       <c r="H39" s="1">
         <v>1.9</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>6.5496993987976815E-2</v>
+        <v>3.8646323161580787E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1630,14 +1630,14 @@
         <v>1.9865430861723448</v>
       </c>
       <c r="G40" s="2">
-        <v>1.9865430861723448</v>
+        <v>1.9501475737868936</v>
       </c>
       <c r="H40" s="1">
         <v>1.87</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="0"/>
-        <v>0.11654308617234466</v>
+        <v>8.0147573786893522E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1660,14 +1660,14 @@
         <v>1.9862545090180364</v>
       </c>
       <c r="G41" s="2">
-        <v>1.9862545090180364</v>
+        <v>1.9536053026513256</v>
       </c>
       <c r="H41" s="1">
         <v>1.87</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="0"/>
-        <v>0.11625450901803625</v>
+        <v>8.3605302651325486E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1690,14 +1690,14 @@
         <v>2.032426853707415</v>
       </c>
       <c r="G42" s="2">
-        <v>2.032426853707415</v>
+        <v>1.9511560780390198</v>
       </c>
       <c r="H42" s="1">
         <v>1.87</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="0"/>
-        <v>0.16242685370741494</v>
+        <v>8.1156078039019697E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1720,14 +1720,14 @@
         <v>1.9790400801603207</v>
       </c>
       <c r="G43" s="2">
-        <v>1.9790400801603207</v>
+        <v>1.9523086543271635</v>
       </c>
       <c r="H43" s="1">
         <v>1.87</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="0"/>
-        <v>0.10904008016032063</v>
+        <v>8.2308654327163389E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1750,14 +1750,14 @@
         <v>1.9738456913827653</v>
       </c>
       <c r="G44" s="2">
-        <v>1.9738456913827653</v>
+        <v>1.9444567283641823</v>
       </c>
       <c r="H44" s="1">
         <v>1.87</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="0"/>
-        <v>0.10384569138276523</v>
+        <v>7.4456728364182156E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1780,14 +1780,14 @@
         <v>1.9879859719438884</v>
       </c>
       <c r="G45" s="2">
-        <v>1.9879859719438884</v>
+        <v>1.9759364682341172</v>
       </c>
       <c r="H45" s="1">
         <v>1.87</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="0"/>
-        <v>0.11798597194388827</v>
+        <v>0.10593646823411706</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1810,14 +1810,14 @@
         <v>1.9770200400801605</v>
       </c>
       <c r="G46" s="2">
-        <v>1.9770200400801605</v>
+        <v>1.9459694847423714</v>
       </c>
       <c r="H46" s="1">
         <v>1.87</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="0"/>
-        <v>0.10702004008016042</v>
+        <v>7.5969484742371307E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -1840,14 +1840,14 @@
         <v>2.065324649298597</v>
       </c>
       <c r="G47" s="2">
-        <v>2.065324649298597</v>
+        <v>1.9917123561780889</v>
       </c>
       <c r="H47" s="1">
         <v>1.87</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="0"/>
-        <v>0.19532464929859694</v>
+        <v>0.12171235617808884</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1870,14 +1870,14 @@
         <v>1.9885631262525043</v>
       </c>
       <c r="G48" s="2">
-        <v>1.9885631262525043</v>
+        <v>1.9489949974987497</v>
       </c>
       <c r="H48" s="1">
         <v>1.87</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="0"/>
-        <v>0.1185631262525042</v>
+        <v>7.8994997498749608E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -1900,14 +1900,14 @@
         <v>1.9963547094188376</v>
       </c>
       <c r="G49" s="2">
-        <v>1.9963547094188376</v>
+        <v>1.9684447223611807</v>
       </c>
       <c r="H49" s="1">
         <v>1.87</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="0"/>
-        <v>0.12635470941883753</v>
+        <v>9.8444722361180625E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1930,14 +1930,14 @@
         <v>1.9914488977955913</v>
       </c>
       <c r="G50" s="2">
-        <v>1.9914488977955913</v>
+        <v>1.9417913956978485</v>
       </c>
       <c r="H50" s="1">
         <v>1.87</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
-        <v>0.1214488977955912</v>
+        <v>7.1791395697848426E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -1960,14 +1960,14 @@
         <v>1.9969318637274549</v>
       </c>
       <c r="G51" s="2">
-        <v>1.9969318637274549</v>
+        <v>1.9600885442721361</v>
       </c>
       <c r="H51" s="1">
         <v>1.87</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
-        <v>0.1269318637274548</v>
+        <v>9.0088544272135973E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -1990,14 +1990,14 @@
         <v>1.9917374749498999</v>
       </c>
       <c r="G52" s="2">
-        <v>1.9917374749498999</v>
+        <v>1.9726948474237118</v>
       </c>
       <c r="H52" s="1">
         <v>1.87</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
-        <v>0.12173747494989984</v>
+        <v>0.10269484742371171</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2020,14 +2020,14 @@
         <v>1.9703827655310626</v>
       </c>
       <c r="G53" s="2">
-        <v>1.9703827655310626</v>
+        <v>1.9218374187093545</v>
       </c>
       <c r="H53" s="1">
         <v>1.87</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
-        <v>0.10038276553106251</v>
+        <v>5.1837418709354433E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2050,14 +2050,14 @@
         <v>2.0067434869739476</v>
       </c>
       <c r="G54" s="2">
-        <v>2.0067434869739476</v>
+        <v>1.9797543771885946</v>
       </c>
       <c r="H54" s="1">
         <v>1.87</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
-        <v>0.13674348697394745</v>
+        <v>0.10975437718859449</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2080,14 +2080,14 @@
         <v>1.9911603206412829</v>
       </c>
       <c r="G55" s="2">
-        <v>1.9911603206412829</v>
+        <v>1.9343716858429212</v>
       </c>
       <c r="H55" s="1">
         <v>1.87</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
-        <v>0.12116032064128279</v>
+        <v>6.4371685842921078E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2110,14 +2110,14 @@
         <v>2.0044348697394789</v>
       </c>
       <c r="G56" s="2">
-        <v>2.0044348697394789</v>
+        <v>1.9628259129564782</v>
       </c>
       <c r="H56" s="1">
         <v>1.87</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="0"/>
-        <v>0.13443486973947882</v>
+        <v>9.2825912956478129E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2140,14 +2140,14 @@
         <v>1.9724028056112226</v>
       </c>
       <c r="G57" s="2">
-        <v>1.9724028056112226</v>
+        <v>1.9294012006003001</v>
       </c>
       <c r="H57" s="1">
         <v>1.87</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
-        <v>0.1024028056112225</v>
+        <v>5.9401200600299964E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2170,14 +2170,14 @@
         <v>1.9784629258517035</v>
       </c>
       <c r="G58" s="2">
-        <v>1.9784629258517035</v>
+        <v>1.9571350675337671</v>
       </c>
       <c r="H58" s="1">
         <v>1.87</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="0"/>
-        <v>0.10846292585170336</v>
+        <v>8.7135067533766986E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2200,14 +2200,14 @@
         <v>2.0266392785571137</v>
       </c>
       <c r="G59" s="2">
-        <v>2.0266392785571137</v>
+        <v>2.0164172086043024</v>
       </c>
       <c r="H59" s="1">
         <v>1.98</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
-        <v>4.6639278557113695E-2</v>
+        <v>3.641720860430242E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2230,14 +2230,14 @@
         <v>2.0216292585170348</v>
       </c>
       <c r="G60" s="2">
-        <v>2.0216292585170348</v>
+        <v>2.0124027013506756</v>
       </c>
       <c r="H60" s="1">
         <v>1.98</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
-        <v>4.1629258517034806E-2</v>
+        <v>3.2402701350675578E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2260,14 +2260,14 @@
         <v>2.021779559118237</v>
       </c>
       <c r="G61" s="2">
-        <v>2.021779559118237</v>
+        <v>2.0121650825412707</v>
       </c>
       <c r="H61" s="1">
         <v>1.98</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="0"/>
-        <v>4.1779559118237053E-2</v>
+        <v>3.2165082541270706E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2290,14 +2290,14 @@
         <v>2.0187234468937874</v>
       </c>
       <c r="G62" s="2">
-        <v>2.0187234468937874</v>
+        <v>2.0094262131065537</v>
       </c>
       <c r="H62" s="1">
         <v>1.98</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="0"/>
-        <v>3.8723446893787372E-2</v>
+        <v>2.9426213106553689E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2320,14 +2320,14 @@
         <v>2.0252364729458914</v>
       </c>
       <c r="G63" s="2">
-        <v>2.0252364729458914</v>
+        <v>2.0160045022511257</v>
       </c>
       <c r="H63" s="1">
         <v>1.98</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="0"/>
-        <v>4.5236472945891393E-2</v>
+        <v>3.6004502251125725E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2350,14 +2350,14 @@
         <v>2.0180220440881764</v>
       </c>
       <c r="G64" s="2">
-        <v>2.0180220440881764</v>
+        <v>2.0077628814407209</v>
       </c>
       <c r="H64" s="1">
         <v>1.98</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" ref="I64:I115" si="1">G64-H64</f>
-        <v>3.8022044088176443E-2</v>
+        <v>2.7762881440720921E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2380,14 +2380,14 @@
         <v>2.0216292585170343</v>
       </c>
       <c r="G65" s="2">
-        <v>2.0216292585170343</v>
+        <v>2.0121025512756376</v>
       </c>
       <c r="H65" s="1">
         <v>1.98</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" si="1"/>
-        <v>4.1629258517034362E-2</v>
+        <v>3.2102551275637659E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2410,14 +2410,14 @@
         <v>2.0230821643286578</v>
       </c>
       <c r="G66" s="2">
-        <v>2.0230821643286578</v>
+        <v>2.0146788394197093</v>
       </c>
       <c r="H66" s="1">
         <v>1.98</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" si="1"/>
-        <v>4.3082164328657857E-2</v>
+        <v>3.4678839419709284E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2470,14 +2470,14 @@
         <v>2.0266893787575149</v>
       </c>
       <c r="G68" s="2">
-        <v>2.0266893787575149</v>
+        <v>2.014916458229115</v>
       </c>
       <c r="H68" s="1">
         <v>1.98</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" si="1"/>
-        <v>4.6689378757514888E-2</v>
+        <v>3.4916458229115044E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2500,14 +2500,14 @@
         <v>2.0284929859719445</v>
       </c>
       <c r="G69" s="2">
-        <v>2.0284929859719445</v>
+        <v>2.0192936468234124</v>
       </c>
       <c r="H69" s="1">
         <v>1.98</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="1"/>
-        <v>4.8492985971944513E-2</v>
+        <v>3.9293646823412409E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2530,14 +2530,14 @@
         <v>2.0244348697394789</v>
       </c>
       <c r="G70" s="2">
-        <v>2.0244348697394789</v>
+        <v>2.0133531765882946</v>
       </c>
       <c r="H70" s="1">
         <v>1.98</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" si="1"/>
-        <v>4.4434869739478966E-2</v>
+        <v>3.335317658829462E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2560,14 +2560,14 @@
         <v>2.0234328657314626</v>
       </c>
       <c r="G71" s="2">
-        <v>2.0234328657314626</v>
+        <v>2.0143036518259128</v>
       </c>
       <c r="H71" s="1">
         <v>1.98</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" si="1"/>
-        <v>4.3432865731462655E-2</v>
+        <v>3.4303651825912773E-2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2590,14 +2590,14 @@
         <v>2.03019639278557</v>
       </c>
       <c r="G72" s="2">
-        <v>2.03019639278557</v>
+        <v>2.0230205102551277</v>
       </c>
       <c r="H72" s="1">
         <v>1.98</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" si="1"/>
-        <v>5.0196392785569977E-2</v>
+        <v>4.3020510255127764E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -2620,14 +2620,14 @@
         <v>2.0206773547094183</v>
       </c>
       <c r="G73" s="2">
-        <v>2.0206773547094183</v>
+        <v>2.0093386693346673</v>
       </c>
       <c r="H73" s="1">
         <v>1.98</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" si="1"/>
-        <v>4.0677354709418356E-2</v>
+        <v>2.9338669334667333E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2710,14 +2710,14 @@
         <v>2.032</v>
       </c>
       <c r="G76" s="2">
-        <v>2.032</v>
+        <v>2.0318999499749877</v>
       </c>
       <c r="H76" s="1">
         <v>1.98</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" si="1"/>
-        <v>5.2000000000000046E-2</v>
+        <v>5.1899949974987702E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -2740,14 +2740,14 @@
         <v>2.025687374749499</v>
       </c>
       <c r="G77" s="2">
-        <v>2.025687374749499</v>
+        <v>2.0159169584792398</v>
       </c>
       <c r="H77" s="1">
         <v>1.98</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" si="1"/>
-        <v>4.5687374749499021E-2</v>
+        <v>3.5916958479239813E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -2770,14 +2770,14 @@
         <v>1.9431342685370745</v>
       </c>
       <c r="G78" s="2">
-        <v>1.9431342685370745</v>
+        <v>1.9353146573286641</v>
       </c>
       <c r="H78" s="1">
         <v>1.89</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" si="1"/>
-        <v>5.3134268537074592E-2</v>
+        <v>4.5314657328664243E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2800,14 +2800,14 @@
         <v>1.9457995991983963</v>
       </c>
       <c r="G79" s="2">
-        <v>1.9457995991983963</v>
+        <v>1.9383371685842921</v>
       </c>
       <c r="H79" s="1">
         <v>1.89</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="1"/>
-        <v>5.5799599198396388E-2</v>
+        <v>4.8337168584292156E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -2830,14 +2830,14 @@
         <v>1.9461042084168336</v>
       </c>
       <c r="G80" s="2">
-        <v>1.9461042084168336</v>
+        <v>1.9375957978989493</v>
       </c>
       <c r="H80" s="1">
         <v>1.89</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="1"/>
-        <v>5.6104208416833723E-2</v>
+        <v>4.759579789894941E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2860,14 +2860,14 @@
         <v>1.9306452905811622</v>
       </c>
       <c r="G81" s="2">
-        <v>1.9306452905811622</v>
+        <v>1.9241180590295146</v>
       </c>
       <c r="H81" s="1">
         <v>1.89</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="1"/>
-        <v>4.0645290581162286E-2</v>
+        <v>3.4118059029514702E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -2890,14 +2890,14 @@
         <v>1.946104208416833</v>
       </c>
       <c r="G82" s="2">
-        <v>1.946104208416833</v>
+        <v>1.939705852926463</v>
       </c>
       <c r="H82" s="1">
         <v>1.89</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="1"/>
-        <v>5.6104208416833057E-2</v>
+        <v>4.9705852926463123E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2920,14 +2920,14 @@
         <v>1.9383366733466938</v>
       </c>
       <c r="G83" s="2">
-        <v>1.9383366733466938</v>
+        <v>1.929896948474237</v>
       </c>
       <c r="H83" s="1">
         <v>1.89</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="1"/>
-        <v>4.8336673346693892E-2</v>
+        <v>3.9896948474237082E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -2950,14 +2950,14 @@
         <v>1.9346813627254507</v>
       </c>
       <c r="G84" s="2">
-        <v>1.9346813627254507</v>
+        <v>1.9279959979989993</v>
       </c>
       <c r="H84" s="1">
         <v>1.89</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" si="1"/>
-        <v>4.4681362725450757E-2</v>
+        <v>3.7995997998999442E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -2980,14 +2980,14 @@
         <v>1.9483887775551103</v>
       </c>
       <c r="G85" s="2">
-        <v>1.9483887775551103</v>
+        <v>1.9396298149074531</v>
       </c>
       <c r="H85" s="1">
         <v>1.89</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" si="1"/>
-        <v>5.8388777555110405E-2</v>
+        <v>4.9629814907453218E-2</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3010,14 +3010,14 @@
         <v>1.9579078156312628</v>
       </c>
       <c r="G86" s="2">
-        <v>1.9579078156312628</v>
+        <v>1.953259629814907</v>
       </c>
       <c r="H86" s="1">
         <v>1.89</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="1"/>
-        <v>6.7907815631262913E-2</v>
+        <v>6.325962981490707E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3040,14 +3040,14 @@
         <v>1.9532625250501001</v>
       </c>
       <c r="G87" s="2">
-        <v>1.9532625250501001</v>
+        <v>1.9366643321660828</v>
       </c>
       <c r="H87" s="1">
         <v>1.89</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="1"/>
-        <v>6.3262525050100216E-2</v>
+        <v>4.66643321660829E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3070,14 +3070,14 @@
         <v>1.9533386773547097</v>
       </c>
       <c r="G88" s="2">
-        <v>1.9533386773547097</v>
+        <v>1.9457508754377189</v>
       </c>
       <c r="H88" s="1">
         <v>1.89</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" si="1"/>
-        <v>6.3338677354709771E-2</v>
+        <v>5.575087543771895E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3100,14 +3100,14 @@
         <v>1.9403166332665327</v>
       </c>
       <c r="G89" s="2">
-        <v>1.9403166332665327</v>
+        <v>1.9339649824912455</v>
       </c>
       <c r="H89" s="1">
         <v>1.89</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" si="1"/>
-        <v>5.0316633266532795E-2</v>
+        <v>4.3964982491245586E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3130,14 +3130,14 @@
         <v>1.9430581162324649</v>
       </c>
       <c r="G90" s="2">
-        <v>1.9430581162324649</v>
+        <v>1.9341740870435218</v>
       </c>
       <c r="H90" s="1">
         <v>1.89</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="1"/>
-        <v>5.3058116232465036E-2</v>
+        <v>4.4174087043521881E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3160,14 +3160,14 @@
         <v>1.9511302605210419</v>
       </c>
       <c r="G91" s="2">
-        <v>1.9511302605210419</v>
+        <v>1.9430515257628815</v>
       </c>
       <c r="H91" s="1">
         <v>1.89</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" si="1"/>
-        <v>6.1130260521041979E-2</v>
+        <v>5.3051525762881635E-2</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3190,14 +3190,14 @@
         <v>1.9462565130260518</v>
       </c>
       <c r="G92" s="2">
-        <v>1.9462565130260518</v>
+        <v>1.9293646823411705</v>
       </c>
       <c r="H92" s="1">
         <v>1.89</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" si="1"/>
-        <v>5.6256513026051946E-2</v>
+        <v>3.9364682341170631E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3220,14 +3220,14 @@
         <v>1.9611062124248497</v>
       </c>
       <c r="G93" s="2">
-        <v>1.9611062124248497</v>
+        <v>1.9509974987493748</v>
       </c>
       <c r="H93" s="1">
         <v>1.89</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" si="1"/>
-        <v>7.1106212424849824E-2</v>
+        <v>6.0997498749374879E-2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3250,14 +3250,14 @@
         <v>1.952805611222445</v>
       </c>
       <c r="G94" s="2">
-        <v>1.952805611222445</v>
+        <v>1.9403141570785398</v>
       </c>
       <c r="H94" s="1">
         <v>1.89</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" si="1"/>
-        <v>6.2805611222445101E-2</v>
+        <v>5.0314157078539923E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3280,14 +3280,14 @@
         <v>1.9553947895791586</v>
       </c>
       <c r="G95" s="2">
-        <v>1.9553947895791586</v>
+        <v>1.9471005502751375</v>
       </c>
       <c r="H95" s="1">
         <v>1.89</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" si="1"/>
-        <v>6.5394789579158674E-2</v>
+        <v>5.7100550275137607E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3310,14 +3310,14 @@
         <v>1.948921843687375</v>
       </c>
       <c r="G96" s="2">
-        <v>1.948921843687375</v>
+        <v>1.9418159079539772</v>
       </c>
       <c r="H96" s="1">
         <v>1.89</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" si="1"/>
-        <v>5.8921843687375075E-2</v>
+        <v>5.181590795397728E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3340,14 +3340,14 @@
         <v>1.9900701402805612</v>
       </c>
       <c r="G97" s="2">
-        <v>1.9900701402805612</v>
+        <v>1.972893946973487</v>
       </c>
       <c r="H97" s="1">
         <v>1.94</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" si="1"/>
-        <v>5.0070140280561226E-2</v>
+        <v>3.289394697348702E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3370,14 +3370,14 @@
         <v>1.9693927855711428</v>
       </c>
       <c r="G98" s="2">
-        <v>1.9693927855711428</v>
+        <v>1.9592966483241621</v>
       </c>
       <c r="H98" s="1">
         <v>1.94</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" si="1"/>
-        <v>2.9392785571142888E-2</v>
+        <v>1.9296648324162113E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3400,14 +3400,14 @@
         <v>1.98898997995992</v>
       </c>
       <c r="G99" s="2">
-        <v>1.98898997995992</v>
+        <v>1.968887943971986</v>
       </c>
       <c r="H99" s="1">
         <v>1.94</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" si="1"/>
-        <v>4.8989979959920049E-2</v>
+        <v>2.8887943971986019E-2</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3430,14 +3430,14 @@
         <v>1.9812745490981962</v>
       </c>
       <c r="G100" s="2">
-        <v>1.9812745490981962</v>
+        <v>1.9668849424712356</v>
       </c>
       <c r="H100" s="1">
         <v>1.94</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="1"/>
-        <v>4.1274549098196278E-2</v>
+        <v>2.6884942471235629E-2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3460,14 +3460,14 @@
         <v>1.9661523046092186</v>
       </c>
       <c r="G101" s="2">
-        <v>1.9661523046092186</v>
+        <v>1.9566388194097046</v>
       </c>
       <c r="H101" s="1">
         <v>1.94</v>
       </c>
       <c r="I101" s="2">
         <f t="shared" si="1"/>
-        <v>2.6152304609218691E-2</v>
+        <v>1.6638819409704686E-2</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3490,14 +3490,14 @@
         <v>1.9584368737474953</v>
       </c>
       <c r="G102" s="2">
-        <v>1.9584368737474953</v>
+        <v>1.952902451225613</v>
       </c>
       <c r="H102" s="1">
         <v>1.94</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" si="1"/>
-        <v>1.8436873747495364E-2</v>
+        <v>1.2902451225613065E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3520,14 +3520,14 @@
         <v>1.9706272545090184</v>
       </c>
       <c r="G103" s="2">
-        <v>1.9706272545090184</v>
+        <v>1.9611070535267634</v>
       </c>
       <c r="H103" s="1">
         <v>1.94</v>
       </c>
       <c r="I103" s="2">
         <f t="shared" si="1"/>
-        <v>3.0627254509018487E-2</v>
+        <v>2.1107053526763453E-2</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3550,14 +3550,14 @@
         <v>1.9771082164328657</v>
       </c>
       <c r="G104" s="2">
-        <v>1.9771082164328657</v>
+        <v>1.9632641320660333</v>
       </c>
       <c r="H104" s="1">
         <v>1.94</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" si="1"/>
-        <v>3.710821643286577E-2</v>
+        <v>2.3264132066033394E-2</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -3580,14 +3580,14 @@
         <v>1.9769539078156311</v>
       </c>
       <c r="G105" s="2">
-        <v>1.9769539078156311</v>
+        <v>1.9631870935467739</v>
       </c>
       <c r="H105" s="1">
         <v>1.94</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" si="1"/>
-        <v>3.6953907815631126E-2</v>
+        <v>2.3187093546773951E-2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3610,14 +3610,14 @@
         <v>2.0116733466933865</v>
       </c>
       <c r="G106" s="2">
-        <v>2.0116733466933865</v>
+        <v>1.9868764382191095</v>
       </c>
       <c r="H106" s="1">
         <v>1.94</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" si="1"/>
-        <v>7.1673346693386542E-2</v>
+        <v>4.6876438219109584E-2</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3640,14 +3640,14 @@
         <v>1.9916132264529056</v>
       </c>
       <c r="G107" s="2">
-        <v>1.9916132264529056</v>
+        <v>1.9727398699349679</v>
       </c>
       <c r="H107" s="1">
         <v>1.94</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" si="1"/>
-        <v>5.1613226452905669E-2</v>
+        <v>3.2739869934967913E-2</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -3670,14 +3670,14 @@
         <v>1.9996372745490987</v>
       </c>
       <c r="G108" s="2">
-        <v>1.9996372745490987</v>
+        <v>1.9847963981990993</v>
       </c>
       <c r="H108" s="1">
         <v>1.94</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" si="1"/>
-        <v>5.9637274549098729E-2</v>
+        <v>4.4796398199099308E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -3700,14 +3700,14 @@
         <v>1.9730961923847696</v>
       </c>
       <c r="G109" s="2">
-        <v>1.9730961923847696</v>
+        <v>1.9634182091045522</v>
       </c>
       <c r="H109" s="1">
         <v>1.94</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" si="1"/>
-        <v>3.3096192384769685E-2</v>
+        <v>2.3418209104552279E-2</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -3730,14 +3730,14 @@
         <v>1.9720160320641289</v>
       </c>
       <c r="G110" s="2">
-        <v>1.9720160320641289</v>
+        <v>1.9601440720360184</v>
       </c>
       <c r="H110" s="1">
         <v>1.94</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" si="1"/>
-        <v>3.2016032064128952E-2</v>
+        <v>2.0144072036018423E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3760,14 +3760,14 @@
         <v>1.9695470941883773</v>
       </c>
       <c r="G111" s="2">
-        <v>1.9695470941883773</v>
+        <v>1.9606448224112056</v>
       </c>
       <c r="H111" s="1">
         <v>1.94</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" si="1"/>
-        <v>2.954709418837731E-2</v>
+        <v>2.0644822411205688E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -3790,14 +3790,14 @@
         <v>1.9690841683366735</v>
       </c>
       <c r="G112" s="2">
-        <v>1.9690841683366735</v>
+        <v>1.9594892446223113</v>
       </c>
       <c r="H112" s="1">
         <v>1.94</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" si="1"/>
-        <v>2.9084168336673599E-2</v>
+        <v>1.9489244622311386E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3820,14 +3820,14 @@
         <v>2.0113647294589176</v>
       </c>
       <c r="G113" s="2">
-        <v>2.0113647294589176</v>
+        <v>1.9849889944972487</v>
       </c>
       <c r="H113" s="1">
         <v>1.94</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" si="1"/>
-        <v>7.1364729458917697E-2</v>
+        <v>4.4988994497248802E-2</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3850,14 +3850,14 @@
         <v>2.0024148296593185</v>
       </c>
       <c r="G114" s="2">
-        <v>2.0024148296593185</v>
+        <v>1.9898424212106056</v>
       </c>
       <c r="H114" s="1">
         <v>1.94</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" si="1"/>
-        <v>6.2414829659318549E-2</v>
+        <v>4.984242121060567E-2</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -3880,14 +3880,14 @@
         <v>1.9852865731462932</v>
       </c>
       <c r="G115" s="2">
-        <v>1.9852865731462932</v>
+        <v>1.9713146573286648</v>
       </c>
       <c r="H115" s="1">
         <v>1.94</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" si="1"/>
-        <v>4.5286573146293252E-2</v>
+        <v>3.1314657328664897E-2</v>
       </c>
     </row>
   </sheetData>
